--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +92,6 @@
   </si>
   <si>
     <t>Asgr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.02541033333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.07623099999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.05367110317558662</v>
+      </c>
+      <c r="J2">
+        <v>0.05367110317558661</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2.074541666666666</v>
+      </c>
+      <c r="N2">
+        <v>6.223624999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="P2">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="Q2">
+        <v>0.05271479526388887</v>
+      </c>
+      <c r="R2">
+        <v>0.4744331573749999</v>
+      </c>
+      <c r="S2">
+        <v>0.04773219739092602</v>
+      </c>
+      <c r="T2">
+        <v>0.04773219739092601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.02541033333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.07623099999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.05367110317558662</v>
+      </c>
+      <c r="J3">
+        <v>0.05367110317558661</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.1284706666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.385412</v>
+      </c>
+      <c r="O3">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="P3">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="Q3">
+        <v>0.003264482463555555</v>
+      </c>
+      <c r="R3">
+        <v>0.02938034217199999</v>
+      </c>
+      <c r="S3">
+        <v>0.002955923864440993</v>
+      </c>
+      <c r="T3">
+        <v>0.002955923864440993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.240427421792982</v>
-      </c>
-      <c r="H2">
-        <v>0.240427421792982</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2.01938001925143</v>
-      </c>
-      <c r="N2">
-        <v>2.01938001925143</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.4855143316488837</v>
-      </c>
-      <c r="R2">
-        <v>0.4855143316488837</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.02541033333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.07623099999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.05367110317558662</v>
+      </c>
+      <c r="J4">
+        <v>0.05367110317558661</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.1296466666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.38894</v>
+      </c>
+      <c r="O4">
+        <v>0.05557891945057836</v>
+      </c>
+      <c r="P4">
+        <v>0.05557891945057837</v>
+      </c>
+      <c r="Q4">
+        <v>0.003294365015555555</v>
+      </c>
+      <c r="R4">
+        <v>0.02964928514</v>
+      </c>
+      <c r="S4">
+        <v>0.002982981920219609</v>
+      </c>
+      <c r="T4">
+        <v>0.002982981920219609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.06350299999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.190509</v>
+      </c>
+      <c r="I5">
+        <v>0.1341295299140485</v>
+      </c>
+      <c r="J5">
+        <v>0.1341295299140485</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.074541666666666</v>
+      </c>
+      <c r="N5">
+        <v>6.223624999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="P5">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="Q5">
+        <v>0.1317396194583333</v>
+      </c>
+      <c r="R5">
+        <v>1.185656575125</v>
+      </c>
+      <c r="S5">
+        <v>0.1192876020614701</v>
+      </c>
+      <c r="T5">
+        <v>0.1192876020614701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06350299999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.190509</v>
+      </c>
+      <c r="I6">
+        <v>0.1341295299140485</v>
+      </c>
+      <c r="J6">
+        <v>0.1341295299140485</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1284706666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.385412</v>
+      </c>
+      <c r="O6">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="P6">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="Q6">
+        <v>0.008158272745333331</v>
+      </c>
+      <c r="R6">
+        <v>0.07342445470799999</v>
+      </c>
+      <c r="S6">
+        <v>0.007387153513541593</v>
+      </c>
+      <c r="T6">
+        <v>0.007387153513541594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.06350299999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.190509</v>
+      </c>
+      <c r="I7">
+        <v>0.1341295299140485</v>
+      </c>
+      <c r="J7">
+        <v>0.1341295299140485</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1296466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.38894</v>
+      </c>
+      <c r="O7">
+        <v>0.05557891945057836</v>
+      </c>
+      <c r="P7">
+        <v>0.05557891945057837</v>
+      </c>
+      <c r="Q7">
+        <v>0.008232952273333332</v>
+      </c>
+      <c r="R7">
+        <v>0.07409657046</v>
+      </c>
+      <c r="S7">
+        <v>0.007454774339036843</v>
+      </c>
+      <c r="T7">
+        <v>0.007454774339036844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.10408</v>
+      </c>
+      <c r="H8">
+        <v>0.31224</v>
+      </c>
+      <c r="I8">
+        <v>0.2198353065753456</v>
+      </c>
+      <c r="J8">
+        <v>0.2198353065753456</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.074541666666666</v>
+      </c>
+      <c r="N8">
+        <v>6.223624999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="P8">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="Q8">
+        <v>0.2159182966666666</v>
+      </c>
+      <c r="R8">
+        <v>1.94326467</v>
+      </c>
+      <c r="S8">
+        <v>0.1955097180063589</v>
+      </c>
+      <c r="T8">
+        <v>0.1955097180063588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.10408</v>
+      </c>
+      <c r="H9">
+        <v>0.31224</v>
+      </c>
+      <c r="I9">
+        <v>0.2198353065753456</v>
+      </c>
+      <c r="J9">
+        <v>0.2198353065753456</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1284706666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.385412</v>
+      </c>
+      <c r="O9">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="P9">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="Q9">
+        <v>0.01337122698666666</v>
+      </c>
+      <c r="R9">
+        <v>0.12034104288</v>
+      </c>
+      <c r="S9">
+        <v>0.01210737977244239</v>
+      </c>
+      <c r="T9">
+        <v>0.01210737977244239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.10408</v>
+      </c>
+      <c r="H10">
+        <v>0.31224</v>
+      </c>
+      <c r="I10">
+        <v>0.2198353065753456</v>
+      </c>
+      <c r="J10">
+        <v>0.2198353065753456</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1296466666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.38894</v>
+      </c>
+      <c r="O10">
+        <v>0.05557891945057836</v>
+      </c>
+      <c r="P10">
+        <v>0.05557891945057837</v>
+      </c>
+      <c r="Q10">
+        <v>0.01349362506666667</v>
+      </c>
+      <c r="R10">
+        <v>0.1214426256</v>
+      </c>
+      <c r="S10">
+        <v>0.01221820879654433</v>
+      </c>
+      <c r="T10">
+        <v>0.01221820879654433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.280452</v>
+      </c>
+      <c r="H11">
+        <v>0.841356</v>
+      </c>
+      <c r="I11">
+        <v>0.5923640603350193</v>
+      </c>
+      <c r="J11">
+        <v>0.5923640603350193</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.074541666666666</v>
+      </c>
+      <c r="N11">
+        <v>6.223624999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="P11">
+        <v>0.88934630679695</v>
+      </c>
+      <c r="Q11">
+        <v>0.5818093594999999</v>
+      </c>
+      <c r="R11">
+        <v>5.236284235499999</v>
+      </c>
+      <c r="S11">
+        <v>0.5268167893381951</v>
+      </c>
+      <c r="T11">
+        <v>0.5268167893381951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.280452</v>
+      </c>
+      <c r="H12">
+        <v>0.841356</v>
+      </c>
+      <c r="I12">
+        <v>0.5923640603350193</v>
+      </c>
+      <c r="J12">
+        <v>0.5923640603350193</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1284706666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.385412</v>
+      </c>
+      <c r="O12">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="P12">
+        <v>0.05507477375247161</v>
+      </c>
+      <c r="Q12">
+        <v>0.03602985540799999</v>
+      </c>
+      <c r="R12">
+        <v>0.324268698672</v>
+      </c>
+      <c r="S12">
+        <v>0.03262431660204663</v>
+      </c>
+      <c r="T12">
+        <v>0.03262431660204664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.280452</v>
+      </c>
+      <c r="H13">
+        <v>0.841356</v>
+      </c>
+      <c r="I13">
+        <v>0.5923640603350193</v>
+      </c>
+      <c r="J13">
+        <v>0.5923640603350193</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1296466666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.38894</v>
+      </c>
+      <c r="O13">
+        <v>0.05557891945057836</v>
+      </c>
+      <c r="P13">
+        <v>0.05557891945057837</v>
+      </c>
+      <c r="Q13">
+        <v>0.03635966695999999</v>
+      </c>
+      <c r="R13">
+        <v>0.32723700264</v>
+      </c>
+      <c r="S13">
+        <v>0.03292295439477758</v>
+      </c>
+      <c r="T13">
+        <v>0.03292295439477758</v>
       </c>
     </row>
   </sheetData>
